--- a/★★★行程★★★/张力之/淘宝交易详情.xlsx
+++ b/★★★行程★★★/张力之/淘宝交易详情.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="187">
   <si>
     <t>旺旺id</t>
     <rPh sb="0" eb="1">
@@ -1386,6 +1386,29 @@
     <rPh sb="2" eb="3">
       <t>xin'yong'ka</t>
     </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬720</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结清</t>
+  </si>
+  <si>
+    <t>球球奇奇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕蓓雯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大懒熊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼克 6月包车 5个人 10-12座</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1482,7 +1505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1505,12 +1528,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1538,6 +1572,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1821,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1897,7 +1939,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="20" t="s">
@@ -1910,10 +1952,10 @@
         <v>171</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
         <v>178</v>
@@ -1967,124 +2009,124 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="24">
         <v>8280</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I7" t="s">
-        <v>175</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="24">
         <v>1420</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="24">
         <v>9660</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I9" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="24">
         <v>9660</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I10" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="24">
         <v>14500</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="23" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>165</v>
@@ -2105,62 +2147,85 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="24">
         <v>10000</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="I13" t="s">
+    </row>
+    <row r="14" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="24">
+        <v>7300</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="J13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="19">
-        <v>7300</v>
-      </c>
-      <c r="G14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="15" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="26">
+        <v>12000</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" s="21" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G15">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I15">
       <formula1>$B$1:$B$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14 J4:J14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H15 J4:J15">
       <formula1>$C$1:$C$2</formula1>
     </dataValidation>
   </dataValidations>
